--- a/weapons.xlsx
+++ b/weapons.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="540" windowWidth="20175" windowHeight="7425" activeTab="2"/>
@@ -1799,7 +1799,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,10 +1871,10 @@
         <v>106</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>

--- a/weapons.xlsx
+++ b/weapons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="20175" windowHeight="7425" activeTab="2"/>
+    <workbookView xWindow="630" yWindow="540" windowWidth="20175" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponAttribute" sheetId="1" r:id="rId1"/>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +821,7 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>21</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:B39"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1268,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>55</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1320,10 +1320,10 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1331,10 +1331,10 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1342,10 +1342,10 @@
         <v>58</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>55</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1356,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1367,7 +1367,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1389,7 +1389,7 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>48</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,7 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>55</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>34</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>15</v>
       </c>
       <c r="C22">
-        <v>48</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1488,7 +1488,7 @@
         <v>15</v>
       </c>
       <c r="C23">
-        <v>55</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1496,10 +1496,10 @@
         <v>72</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1507,10 +1507,10 @@
         <v>73</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1518,10 +1518,10 @@
         <v>74</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>55</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1532,7 +1532,7 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>34</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1554,7 +1554,7 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>48</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>55</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>27</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>55</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,7 +1620,7 @@
         <v>20</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <v>34</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1642,7 +1642,7 @@
         <v>20</v>
       </c>
       <c r="C37">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>20</v>
       </c>
       <c r="C38">
-        <v>48</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,7 +1664,7 @@
         <v>20</v>
       </c>
       <c r="C39">
-        <v>55</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1672,10 +1672,10 @@
         <v>88</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>27</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1683,10 +1683,10 @@
         <v>89</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1694,10 +1694,10 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>55</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>34</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1730,7 +1730,7 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1741,7 +1741,7 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>48</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>55</v>
+        <v>550</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>27</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1785,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>55</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -1798,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,7 +1909,7 @@
         <v>113</v>
       </c>
       <c r="F4">
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -1935,7 +1935,7 @@
         <v>114</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>

--- a/weapons.xlsx
+++ b/weapons.xlsx
@@ -708,7 +708,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +821,7 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>27</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,7 +1694,7 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>550</v>
